--- a/August/Others/Symphony Service Point.xlsx
+++ b/August/Others/Symphony Service Point.xlsx
@@ -251,20 +251,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +670,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G30" sqref="A1:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -706,38 +706,38 @@
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" ht="17.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1046,7 +1046,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>